--- a/Working/HW7_FarmChallenge/Notes and Diagrams.xlsx
+++ b/Working/HW7_FarmChallenge/Notes and Diagrams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Documents\GW Modeling Repository\homework-justinheadley\Working\HW7_FarmChallenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6CA1A8-D4D0-4870-8CA6-FBE983CBE4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B159293-6CEC-4DFE-9DC2-BD48D6E08965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40770" yWindow="-12915" windowWidth="16440" windowHeight="28440" xr2:uid="{891B9F3B-94D1-489D-AC61-F92CB9AF94D7}"/>
   </bookViews>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t>O1</t>
   </si>
@@ -192,12 +192,6 @@
     <t>square meters to acres</t>
   </si>
   <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
     <t>x1</t>
   </si>
   <si>
@@ -208,9 +202,6 @@
   </si>
   <si>
     <t>y2</t>
-  </si>
-  <si>
-    <t>Consumptive water use for cotton</t>
   </si>
   <si>
     <t>in/year</t>
@@ -274,6 +265,78 @@
   </si>
   <si>
     <t>20m Depth Well at [16,5]</t>
+  </si>
+  <si>
+    <t>can cut pumping rate in half if needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WTD at well </t>
+  </si>
+  <si>
+    <t>Scenario 1</t>
+  </si>
+  <si>
+    <t>Scenario 2</t>
+  </si>
+  <si>
+    <t>w pumping</t>
+  </si>
+  <si>
+    <t>w/o pumping</t>
+  </si>
+  <si>
+    <t>(Value cut in half per instructor's recommendation)</t>
+  </si>
+  <si>
+    <t>width (m)</t>
+  </si>
+  <si>
+    <t>length (m)</t>
+  </si>
+  <si>
+    <t>100% Required Irrigation</t>
+  </si>
+  <si>
+    <t>120% (Excess) Irrigation</t>
+  </si>
+  <si>
+    <t>Recharge (Excess - Required)</t>
+  </si>
+  <si>
+    <t>Required Pumping Rate of Well</t>
+  </si>
+  <si>
+    <t>Area (acres)</t>
+  </si>
+  <si>
+    <t>Area (m^2)</t>
+  </si>
+  <si>
+    <t>Width (m)</t>
+  </si>
+  <si>
+    <t>Length (m)</t>
+  </si>
+  <si>
+    <t>Rounded Area (m^2)</t>
+  </si>
+  <si>
+    <t>Cotton Consumptive Water Use</t>
+  </si>
+  <si>
+    <t>m / year</t>
+  </si>
+  <si>
+    <t>in / year</t>
+  </si>
+  <si>
+    <t>m / day</t>
+  </si>
+  <si>
+    <t>Alfalfa Consumptive Water Use</t>
+  </si>
+  <si>
+    <t>Required Pumping Rate (Total)</t>
   </si>
 </sst>
 </file>
@@ -375,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -646,12 +709,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -713,7 +885,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -726,6 +897,100 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1105,14 +1370,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>226219</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>74612</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1512,7 +1777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q62" sqref="Q62"/>
+      <selection pane="bottomLeft" activeCell="R71" sqref="R71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,202 +1799,202 @@
   <sheetData>
     <row r="1" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="3"/>
-      <c r="D1" s="52">
+      <c r="D1" s="51">
         <v>0</v>
       </c>
-      <c r="E1" s="52">
+      <c r="E1" s="51">
         <f>D1+1</f>
         <v>1</v>
       </c>
-      <c r="F1" s="52">
+      <c r="F1" s="51">
         <f t="shared" ref="F1:BA1" si="0">E1+1</f>
         <v>2</v>
       </c>
-      <c r="G1" s="52">
+      <c r="G1" s="51">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H1" s="52">
+      <c r="H1" s="51">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I1" s="52">
+      <c r="I1" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J1" s="52">
+      <c r="J1" s="51">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K1" s="52">
+      <c r="K1" s="51">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L1" s="52">
+      <c r="L1" s="51">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M1" s="52">
+      <c r="M1" s="51">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N1" s="52">
+      <c r="N1" s="51">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O1" s="52">
+      <c r="O1" s="51">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P1" s="52">
+      <c r="P1" s="51">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="Q1" s="52">
+      <c r="Q1" s="51">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="R1" s="52">
+      <c r="R1" s="51">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="S1" s="52">
+      <c r="S1" s="51">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="T1" s="52">
+      <c r="T1" s="51">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="U1" s="52">
+      <c r="U1" s="51">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="V1" s="52">
+      <c r="V1" s="51">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="W1" s="52">
+      <c r="W1" s="51">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="X1" s="52">
+      <c r="X1" s="51">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Y1" s="52">
+      <c r="Y1" s="51">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Z1" s="52">
+      <c r="Z1" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AA1" s="52">
+      <c r="AA1" s="51">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AB1" s="52">
+      <c r="AB1" s="51">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AC1" s="52">
+      <c r="AC1" s="51">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AD1" s="52">
+      <c r="AD1" s="51">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AE1" s="52">
+      <c r="AE1" s="51">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AF1" s="52">
+      <c r="AF1" s="51">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AG1" s="52">
+      <c r="AG1" s="51">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AH1" s="52">
+      <c r="AH1" s="51">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AI1" s="52">
+      <c r="AI1" s="51">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AJ1" s="52">
+      <c r="AJ1" s="51">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AK1" s="52">
+      <c r="AK1" s="51">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AL1" s="52">
+      <c r="AL1" s="51">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AM1" s="52">
+      <c r="AM1" s="51">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AN1" s="52">
+      <c r="AN1" s="51">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AO1" s="52">
+      <c r="AO1" s="51">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="AP1" s="52">
+      <c r="AP1" s="51">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="AQ1" s="52">
+      <c r="AQ1" s="51">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="AR1" s="52">
+      <c r="AR1" s="51">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AS1" s="52">
+      <c r="AS1" s="51">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AT1" s="52">
+      <c r="AT1" s="51">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="AU1" s="52">
+      <c r="AU1" s="51">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="AV1" s="52">
+      <c r="AV1" s="51">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="AW1" s="52">
+      <c r="AW1" s="51">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="AX1" s="52">
+      <c r="AX1" s="51">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AY1" s="52">
+      <c r="AY1" s="51">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="AZ1" s="52">
+      <c r="AZ1" s="51">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="BA1" s="52">
+      <c r="BA1" s="51">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -2216,7 +2481,7 @@
       <c r="BA5" s="14"/>
     </row>
     <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+      <c r="A6" s="51">
         <f>A5+1</f>
         <v>2</v>
       </c>
@@ -2282,7 +2547,7 @@
       <c r="BA6" s="14"/>
     </row>
     <row r="7" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52">
+      <c r="A7" s="51">
         <f t="shared" ref="A7:A53" si="4">A6+1</f>
         <v>3</v>
       </c>
@@ -2348,7 +2613,7 @@
       <c r="BA7" s="14"/>
     </row>
     <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
+      <c r="A8" s="51">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -2412,7 +2677,7 @@
       <c r="BA8" s="14"/>
     </row>
     <row r="9" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52">
+      <c r="A9" s="51">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2476,7 +2741,7 @@
       <c r="BA9" s="14"/>
     </row>
     <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
+      <c r="A10" s="51">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
@@ -2540,7 +2805,7 @@
       <c r="BA10" s="14"/>
     </row>
     <row r="11" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52">
+      <c r="A11" s="51">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -2604,7 +2869,7 @@
       <c r="BA11" s="14"/>
     </row>
     <row r="12" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
+      <c r="A12" s="51">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
@@ -2668,7 +2933,7 @@
       <c r="BA12" s="14"/>
     </row>
     <row r="13" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52">
+      <c r="A13" s="51">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
@@ -2732,7 +2997,7 @@
       <c r="BA13" s="14"/>
     </row>
     <row r="14" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
+      <c r="A14" s="51">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
@@ -2769,7 +3034,7 @@
       <c r="Z14" s="30"/>
       <c r="AA14" s="30"/>
       <c r="AB14" s="31"/>
-      <c r="AC14" s="53"/>
+      <c r="AC14" s="52"/>
       <c r="AD14" s="30"/>
       <c r="AE14" s="30"/>
       <c r="AF14" s="30"/>
@@ -2796,7 +3061,7 @@
       <c r="BA14" s="14"/>
     </row>
     <row r="15" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52">
+      <c r="A15" s="51">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
@@ -2833,7 +3098,7 @@
       <c r="Z15" s="28"/>
       <c r="AA15" s="28"/>
       <c r="AB15" s="33"/>
-      <c r="AC15" s="54"/>
+      <c r="AC15" s="53"/>
       <c r="AD15" s="28"/>
       <c r="AE15" s="28"/>
       <c r="AF15" s="28"/>
@@ -2860,7 +3125,7 @@
       <c r="BA15" s="14"/>
     </row>
     <row r="16" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52">
+      <c r="A16" s="51">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
@@ -2897,7 +3162,7 @@
       <c r="Z16" s="28"/>
       <c r="AA16" s="28"/>
       <c r="AB16" s="33"/>
-      <c r="AC16" s="54"/>
+      <c r="AC16" s="53"/>
       <c r="AD16" s="28"/>
       <c r="AE16" s="28"/>
       <c r="AF16" s="28"/>
@@ -2924,7 +3189,7 @@
       <c r="BA16" s="14"/>
     </row>
     <row r="17" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52">
+      <c r="A17" s="51">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
@@ -2961,7 +3226,7 @@
       <c r="Z17" s="28"/>
       <c r="AA17" s="28"/>
       <c r="AB17" s="33"/>
-      <c r="AC17" s="54"/>
+      <c r="AC17" s="53"/>
       <c r="AD17" s="28"/>
       <c r="AE17" s="28"/>
       <c r="AF17" s="28"/>
@@ -2988,7 +3253,7 @@
       <c r="BA17" s="14"/>
     </row>
     <row r="18" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52">
+      <c r="A18" s="51">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
@@ -3025,7 +3290,7 @@
       <c r="Z18" s="28"/>
       <c r="AA18" s="28"/>
       <c r="AB18" s="33"/>
-      <c r="AC18" s="54"/>
+      <c r="AC18" s="53"/>
       <c r="AD18" s="28"/>
       <c r="AE18" s="28"/>
       <c r="AF18" s="28"/>
@@ -3052,7 +3317,7 @@
       <c r="BA18" s="14"/>
     </row>
     <row r="19" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52">
+      <c r="A19" s="51">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
@@ -3089,7 +3354,7 @@
       <c r="Z19" s="28"/>
       <c r="AA19" s="28"/>
       <c r="AB19" s="33"/>
-      <c r="AC19" s="54"/>
+      <c r="AC19" s="53"/>
       <c r="AD19" s="28"/>
       <c r="AE19" s="28"/>
       <c r="AF19" s="28"/>
@@ -3116,7 +3381,7 @@
       <c r="BA19" s="14"/>
     </row>
     <row r="20" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52">
+      <c r="A20" s="51">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
@@ -3145,7 +3410,7 @@
       <c r="R20" s="32"/>
       <c r="S20" s="28"/>
       <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
+      <c r="U20" s="88"/>
       <c r="V20" s="28"/>
       <c r="W20" s="28"/>
       <c r="X20" s="28"/>
@@ -3153,12 +3418,12 @@
       <c r="Z20" s="28"/>
       <c r="AA20" s="28"/>
       <c r="AB20" s="33"/>
-      <c r="AC20" s="54"/>
+      <c r="AC20" s="53"/>
       <c r="AD20" s="28"/>
       <c r="AE20" s="28"/>
       <c r="AF20" s="28"/>
       <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
+      <c r="AH20" s="88"/>
       <c r="AI20" s="28"/>
       <c r="AJ20" s="28"/>
       <c r="AK20" s="33"/>
@@ -3180,7 +3445,7 @@
       <c r="BA20" s="14"/>
     </row>
     <row r="21" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52">
+      <c r="A21" s="51">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
@@ -3217,7 +3482,7 @@
       <c r="Z21" s="28"/>
       <c r="AA21" s="28"/>
       <c r="AB21" s="33"/>
-      <c r="AC21" s="54"/>
+      <c r="AC21" s="53"/>
       <c r="AD21" s="28"/>
       <c r="AE21" s="28"/>
       <c r="AF21" s="28"/>
@@ -3244,7 +3509,7 @@
       <c r="BA21" s="14"/>
     </row>
     <row r="22" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52">
+      <c r="A22" s="51">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
@@ -3281,7 +3546,7 @@
       <c r="Z22" s="28"/>
       <c r="AA22" s="28"/>
       <c r="AB22" s="33"/>
-      <c r="AC22" s="54"/>
+      <c r="AC22" s="53"/>
       <c r="AD22" s="28"/>
       <c r="AE22" s="28"/>
       <c r="AF22" s="28"/>
@@ -3308,7 +3573,7 @@
       <c r="BA22" s="14"/>
     </row>
     <row r="23" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="52">
+      <c r="A23" s="51">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
@@ -3345,7 +3610,7 @@
       <c r="Z23" s="28"/>
       <c r="AA23" s="28"/>
       <c r="AB23" s="33"/>
-      <c r="AC23" s="54"/>
+      <c r="AC23" s="53"/>
       <c r="AD23" s="28"/>
       <c r="AE23" s="28"/>
       <c r="AF23" s="28"/>
@@ -3372,7 +3637,7 @@
       <c r="BA23" s="14"/>
     </row>
     <row r="24" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52">
+      <c r="A24" s="51">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
@@ -3409,7 +3674,7 @@
       <c r="Z24" s="28"/>
       <c r="AA24" s="28"/>
       <c r="AB24" s="33"/>
-      <c r="AC24" s="54"/>
+      <c r="AC24" s="53"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="28"/>
       <c r="AF24" s="28"/>
@@ -3436,7 +3701,7 @@
       <c r="BA24" s="14"/>
     </row>
     <row r="25" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52">
+      <c r="A25" s="51">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
@@ -3473,7 +3738,7 @@
       <c r="Z25" s="28"/>
       <c r="AA25" s="28"/>
       <c r="AB25" s="33"/>
-      <c r="AC25" s="54"/>
+      <c r="AC25" s="53"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="28"/>
       <c r="AF25" s="28"/>
@@ -3500,7 +3765,7 @@
       <c r="BA25" s="14"/>
     </row>
     <row r="26" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
+      <c r="A26" s="51">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
@@ -3537,7 +3802,7 @@
       <c r="Z26" s="28"/>
       <c r="AA26" s="28"/>
       <c r="AB26" s="33"/>
-      <c r="AC26" s="54"/>
+      <c r="AC26" s="53"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="28"/>
       <c r="AF26" s="28"/>
@@ -3564,7 +3829,7 @@
       <c r="BA26" s="14"/>
     </row>
     <row r="27" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52">
+      <c r="A27" s="51">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
@@ -3600,8 +3865,8 @@
       <c r="Y27" s="28"/>
       <c r="Z27" s="28"/>
       <c r="AA27" s="28"/>
-      <c r="AB27" s="49"/>
-      <c r="AC27" s="54"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="53"/>
       <c r="AD27" s="28"/>
       <c r="AE27" s="28"/>
       <c r="AF27" s="28"/>
@@ -3628,7 +3893,7 @@
       <c r="BA27" s="14"/>
     </row>
     <row r="28" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52">
+      <c r="A28" s="51">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
@@ -3640,7 +3905,7 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="D28" s="56"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -3665,7 +3930,7 @@
       <c r="Z28" s="35"/>
       <c r="AA28" s="35"/>
       <c r="AB28" s="36"/>
-      <c r="AC28" s="55"/>
+      <c r="AC28" s="54"/>
       <c r="AD28" s="35"/>
       <c r="AE28" s="35"/>
       <c r="AF28" s="35"/>
@@ -3692,7 +3957,7 @@
       <c r="BA28" s="46"/>
     </row>
     <row r="29" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52">
+      <c r="A29" s="51">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
@@ -3756,7 +4021,7 @@
       <c r="BA29" s="11"/>
     </row>
     <row r="30" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52">
+      <c r="A30" s="51">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
@@ -3820,7 +4085,7 @@
       <c r="BA30" s="14"/>
     </row>
     <row r="31" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52">
+      <c r="A31" s="51">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
@@ -3884,7 +4149,7 @@
       <c r="BA31" s="14"/>
     </row>
     <row r="32" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52">
+      <c r="A32" s="51">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
@@ -3948,7 +4213,7 @@
       <c r="BA32" s="14"/>
     </row>
     <row r="33" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52">
+      <c r="A33" s="51">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
@@ -4012,7 +4277,7 @@
       <c r="BA33" s="14"/>
     </row>
     <row r="34" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52">
+      <c r="A34" s="51">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -4076,7 +4341,7 @@
       <c r="BA34" s="14"/>
     </row>
     <row r="35" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52">
+      <c r="A35" s="51">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
@@ -4140,7 +4405,7 @@
       <c r="BA35" s="14"/>
     </row>
     <row r="36" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52">
+      <c r="A36" s="51">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
@@ -4204,7 +4469,7 @@
       <c r="BA36" s="14"/>
     </row>
     <row r="37" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52">
+      <c r="A37" s="51">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
@@ -4268,7 +4533,7 @@
       <c r="BA37" s="14"/>
     </row>
     <row r="38" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52">
+      <c r="A38" s="51">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
@@ -4332,7 +4597,7 @@
       <c r="BA38" s="14"/>
     </row>
     <row r="39" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52">
+      <c r="A39" s="51">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
@@ -4396,7 +4661,7 @@
       <c r="BA39" s="14"/>
     </row>
     <row r="40" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="52">
+      <c r="A40" s="51">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
@@ -4460,7 +4725,7 @@
       <c r="BA40" s="14"/>
     </row>
     <row r="41" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="52">
+      <c r="A41" s="51">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
@@ -4496,7 +4761,7 @@
       <c r="Y41" s="28"/>
       <c r="Z41" s="28"/>
       <c r="AA41" s="28"/>
-      <c r="AB41" s="49"/>
+      <c r="AB41" s="33"/>
       <c r="AC41" s="32"/>
       <c r="AD41" s="28"/>
       <c r="AE41" s="28"/>
@@ -4524,7 +4789,7 @@
       <c r="BA41" s="14"/>
     </row>
     <row r="42" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52">
+      <c r="A42" s="51">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
@@ -4588,7 +4853,7 @@
       <c r="BA42" s="14"/>
     </row>
     <row r="43" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="52">
+      <c r="A43" s="51">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
@@ -4652,7 +4917,7 @@
       <c r="BA43" s="14"/>
     </row>
     <row r="44" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="52">
+      <c r="A44" s="51">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
@@ -4716,7 +4981,7 @@
       <c r="BA44" s="14"/>
     </row>
     <row r="45" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52">
+      <c r="A45" s="51">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
@@ -4780,7 +5045,7 @@
       <c r="BA45" s="14"/>
     </row>
     <row r="46" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52">
+      <c r="A46" s="51">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
@@ -4844,7 +5109,7 @@
       <c r="BA46" s="14"/>
     </row>
     <row r="47" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="52">
+      <c r="A47" s="51">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
@@ -4908,7 +5173,7 @@
       <c r="BA47" s="14"/>
     </row>
     <row r="48" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="52">
+      <c r="A48" s="51">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
@@ -4972,7 +5237,7 @@
       <c r="BA48" s="14"/>
     </row>
     <row r="49" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="52">
+      <c r="A49" s="51">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
@@ -5036,7 +5301,7 @@
       <c r="BA49" s="14"/>
     </row>
     <row r="50" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="52">
+      <c r="A50" s="51">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
@@ -5100,7 +5365,7 @@
       <c r="BA50" s="14"/>
     </row>
     <row r="51" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="52">
+      <c r="A51" s="51">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
@@ -5164,7 +5429,7 @@
       <c r="BA51" s="14"/>
     </row>
     <row r="52" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="52">
+      <c r="A52" s="51">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -5228,7 +5493,7 @@
       <c r="BA52" s="14"/>
     </row>
     <row r="53" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="52">
+      <c r="A53" s="51">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
@@ -5505,202 +5770,202 @@
       </c>
     </row>
     <row r="55" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="52">
+      <c r="D55" s="51">
         <v>0</v>
       </c>
-      <c r="E55" s="52">
+      <c r="E55" s="51">
         <f>D55+1</f>
         <v>1</v>
       </c>
-      <c r="F55" s="52">
+      <c r="F55" s="51">
         <f t="shared" ref="F55" si="6">E55+1</f>
         <v>2</v>
       </c>
-      <c r="G55" s="52">
+      <c r="G55" s="51">
         <f t="shared" ref="G55" si="7">F55+1</f>
         <v>3</v>
       </c>
-      <c r="H55" s="52">
+      <c r="H55" s="51">
         <f t="shared" ref="H55" si="8">G55+1</f>
         <v>4</v>
       </c>
-      <c r="I55" s="52">
+      <c r="I55" s="51">
         <f t="shared" ref="I55" si="9">H55+1</f>
         <v>5</v>
       </c>
-      <c r="J55" s="52">
+      <c r="J55" s="51">
         <f t="shared" ref="J55" si="10">I55+1</f>
         <v>6</v>
       </c>
-      <c r="K55" s="52">
+      <c r="K55" s="51">
         <f t="shared" ref="K55" si="11">J55+1</f>
         <v>7</v>
       </c>
-      <c r="L55" s="52">
+      <c r="L55" s="51">
         <f t="shared" ref="L55" si="12">K55+1</f>
         <v>8</v>
       </c>
-      <c r="M55" s="52">
+      <c r="M55" s="51">
         <f t="shared" ref="M55" si="13">L55+1</f>
         <v>9</v>
       </c>
-      <c r="N55" s="52">
+      <c r="N55" s="51">
         <f t="shared" ref="N55" si="14">M55+1</f>
         <v>10</v>
       </c>
-      <c r="O55" s="52">
+      <c r="O55" s="51">
         <f t="shared" ref="O55" si="15">N55+1</f>
         <v>11</v>
       </c>
-      <c r="P55" s="52">
+      <c r="P55" s="51">
         <f t="shared" ref="P55" si="16">O55+1</f>
         <v>12</v>
       </c>
-      <c r="Q55" s="52">
+      <c r="Q55" s="51">
         <f t="shared" ref="Q55" si="17">P55+1</f>
         <v>13</v>
       </c>
-      <c r="R55" s="52">
+      <c r="R55" s="51">
         <f t="shared" ref="R55" si="18">Q55+1</f>
         <v>14</v>
       </c>
-      <c r="S55" s="52">
+      <c r="S55" s="51">
         <f t="shared" ref="S55" si="19">R55+1</f>
         <v>15</v>
       </c>
-      <c r="T55" s="52">
+      <c r="T55" s="51">
         <f t="shared" ref="T55" si="20">S55+1</f>
         <v>16</v>
       </c>
-      <c r="U55" s="52">
+      <c r="U55" s="51">
         <f t="shared" ref="U55" si="21">T55+1</f>
         <v>17</v>
       </c>
-      <c r="V55" s="52">
+      <c r="V55" s="51">
         <f t="shared" ref="V55" si="22">U55+1</f>
         <v>18</v>
       </c>
-      <c r="W55" s="52">
+      <c r="W55" s="51">
         <f t="shared" ref="W55" si="23">V55+1</f>
         <v>19</v>
       </c>
-      <c r="X55" s="52">
+      <c r="X55" s="51">
         <f t="shared" ref="X55" si="24">W55+1</f>
         <v>20</v>
       </c>
-      <c r="Y55" s="52">
+      <c r="Y55" s="51">
         <f t="shared" ref="Y55" si="25">X55+1</f>
         <v>21</v>
       </c>
-      <c r="Z55" s="52">
+      <c r="Z55" s="51">
         <f t="shared" ref="Z55" si="26">Y55+1</f>
         <v>22</v>
       </c>
-      <c r="AA55" s="52">
+      <c r="AA55" s="51">
         <f t="shared" ref="AA55" si="27">Z55+1</f>
         <v>23</v>
       </c>
-      <c r="AB55" s="52">
+      <c r="AB55" s="51">
         <f t="shared" ref="AB55" si="28">AA55+1</f>
         <v>24</v>
       </c>
-      <c r="AC55" s="52">
+      <c r="AC55" s="51">
         <f t="shared" ref="AC55" si="29">AB55+1</f>
         <v>25</v>
       </c>
-      <c r="AD55" s="52">
+      <c r="AD55" s="51">
         <f t="shared" ref="AD55" si="30">AC55+1</f>
         <v>26</v>
       </c>
-      <c r="AE55" s="52">
+      <c r="AE55" s="51">
         <f t="shared" ref="AE55" si="31">AD55+1</f>
         <v>27</v>
       </c>
-      <c r="AF55" s="52">
+      <c r="AF55" s="51">
         <f t="shared" ref="AF55" si="32">AE55+1</f>
         <v>28</v>
       </c>
-      <c r="AG55" s="52">
+      <c r="AG55" s="51">
         <f t="shared" ref="AG55" si="33">AF55+1</f>
         <v>29</v>
       </c>
-      <c r="AH55" s="52">
+      <c r="AH55" s="51">
         <f t="shared" ref="AH55" si="34">AG55+1</f>
         <v>30</v>
       </c>
-      <c r="AI55" s="52">
+      <c r="AI55" s="51">
         <f t="shared" ref="AI55" si="35">AH55+1</f>
         <v>31</v>
       </c>
-      <c r="AJ55" s="52">
+      <c r="AJ55" s="51">
         <f t="shared" ref="AJ55" si="36">AI55+1</f>
         <v>32</v>
       </c>
-      <c r="AK55" s="52">
+      <c r="AK55" s="51">
         <f t="shared" ref="AK55" si="37">AJ55+1</f>
         <v>33</v>
       </c>
-      <c r="AL55" s="52">
+      <c r="AL55" s="51">
         <f t="shared" ref="AL55" si="38">AK55+1</f>
         <v>34</v>
       </c>
-      <c r="AM55" s="52">
+      <c r="AM55" s="51">
         <f t="shared" ref="AM55" si="39">AL55+1</f>
         <v>35</v>
       </c>
-      <c r="AN55" s="52">
+      <c r="AN55" s="51">
         <f t="shared" ref="AN55" si="40">AM55+1</f>
         <v>36</v>
       </c>
-      <c r="AO55" s="52">
+      <c r="AO55" s="51">
         <f t="shared" ref="AO55" si="41">AN55+1</f>
         <v>37</v>
       </c>
-      <c r="AP55" s="52">
+      <c r="AP55" s="51">
         <f t="shared" ref="AP55" si="42">AO55+1</f>
         <v>38</v>
       </c>
-      <c r="AQ55" s="52">
+      <c r="AQ55" s="51">
         <f t="shared" ref="AQ55" si="43">AP55+1</f>
         <v>39</v>
       </c>
-      <c r="AR55" s="52">
+      <c r="AR55" s="51">
         <f t="shared" ref="AR55" si="44">AQ55+1</f>
         <v>40</v>
       </c>
-      <c r="AS55" s="52">
+      <c r="AS55" s="51">
         <f t="shared" ref="AS55" si="45">AR55+1</f>
         <v>41</v>
       </c>
-      <c r="AT55" s="52">
+      <c r="AT55" s="51">
         <f t="shared" ref="AT55" si="46">AS55+1</f>
         <v>42</v>
       </c>
-      <c r="AU55" s="52">
+      <c r="AU55" s="51">
         <f t="shared" ref="AU55" si="47">AT55+1</f>
         <v>43</v>
       </c>
-      <c r="AV55" s="52">
+      <c r="AV55" s="51">
         <f t="shared" ref="AV55" si="48">AU55+1</f>
         <v>44</v>
       </c>
-      <c r="AW55" s="52">
+      <c r="AW55" s="51">
         <f t="shared" ref="AW55" si="49">AV55+1</f>
         <v>45</v>
       </c>
-      <c r="AX55" s="52">
+      <c r="AX55" s="51">
         <f t="shared" ref="AX55" si="50">AW55+1</f>
         <v>46</v>
       </c>
-      <c r="AY55" s="52">
+      <c r="AY55" s="51">
         <f t="shared" ref="AY55" si="51">AX55+1</f>
         <v>47</v>
       </c>
-      <c r="AZ55" s="52">
+      <c r="AZ55" s="51">
         <f t="shared" ref="AZ55" si="52">AY55+1</f>
         <v>48</v>
       </c>
-      <c r="BA55" s="52">
+      <c r="BA55" s="51">
         <f t="shared" ref="BA55" si="53">AZ55+1</f>
         <v>49</v>
       </c>
@@ -5714,17 +5979,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD5295E-69A0-4918-9FC0-0DDC3FB9CC52}">
-  <dimension ref="B1:R32"/>
+  <dimension ref="B1:R42"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
     <col min="17" max="17" width="10.140625" customWidth="1"/>
     <col min="18" max="18" width="9.42578125" customWidth="1"/>
   </cols>
@@ -5831,7 +6101,7 @@
         <f>AVERAGE(J2:J3)</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="56">
         <f>AVERAGE(K2:K3)</f>
         <v>894.90000000000009</v>
       </c>
@@ -5842,44 +6112,50 @@
         <f>AVERAGE(N2:N3)</f>
         <v>50.900000000000006</v>
       </c>
-      <c r="O4" s="57">
+      <c r="O4" s="56">
         <f>AVERAGE(O2:O3)</f>
         <v>849.09999999999991</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>1E-4</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K8" s="47">
+        <v>4046.86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
       <c r="Q8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O9">
         <v>1.5</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
-      <c r="Q9" s="50">
+      <c r="Q9" s="49">
         <f>2/((1/O9)+(1/P9))</f>
         <v>1.2000000000000002</v>
       </c>
@@ -5888,248 +6164,467 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
+    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
+      <c r="I10" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
       <c r="O10">
         <v>13</v>
       </c>
       <c r="P10">
         <v>8.4</v>
       </c>
-      <c r="Q10" s="50">
+      <c r="Q10" s="49">
         <f>2/((1/O10)+(1/P10))</f>
         <v>10.205607476635514</v>
       </c>
-      <c r="R10" s="50">
+      <c r="R10" s="49">
         <f>AVERAGE(O10:P10)</f>
         <v>10.7</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I11">
-        <v>4046.86</v>
-      </c>
+      <c r="B11" s="70">
+        <v>30</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="74"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="B12" s="77">
+        <f>B11*K8</f>
+        <v>121405.8</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="77">
+        <f>B13*D13</f>
+        <v>122500</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="72">
+        <v>350</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="72">
+        <v>350</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="69"/>
+      <c r="I13" s="47">
+        <v>1000</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="I14" s="47">
+        <f>2*I13</f>
+        <v>2000</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="70">
+        <f>41.2</f>
+        <v>41.2</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
+      <c r="I15" s="26">
+        <v>2000000</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="62">
+        <f>B15/(1/0.0254)</f>
+        <v>1.0464800000000001</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="64"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="65">
+        <f>B16/365</f>
+        <v>2.8670684931506852E-3</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="58"/>
+      <c r="F17" s="64"/>
+      <c r="I17">
+        <f>74.3/2</f>
+        <v>37.15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="65">
+        <f>B17*1.2</f>
+        <v>3.440482191780822E-3</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="58"/>
+      <c r="F18" s="64"/>
+      <c r="I18">
+        <f>I17/(1/0.0254)</f>
+        <v>0.94360999999999995</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="65">
+        <f>B18-B17</f>
+        <v>5.7341369863013686E-4</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="64"/>
+      <c r="I19" s="27">
+        <f>I18/365</f>
+        <v>2.5852328767123284E-3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="66">
+        <f>B18*D12</f>
+        <v>421.45906849315071</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
+      <c r="I20" s="27">
+        <f>I19*1.2</f>
+        <v>3.1022794520547941E-3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I21" s="27">
+        <f>I20-I19</f>
+        <v>5.1704657534246568E-4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12">
+      <c r="P21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I22" s="48">
+        <f>I20*I15</f>
+        <v>6204.5589041095882</v>
+      </c>
+      <c r="J22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I23" s="48">
+        <f>I22/2</f>
+        <v>3102.2794520547941</v>
+      </c>
+      <c r="J23" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Q23">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="80"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="70">
         <v>500</v>
       </c>
-      <c r="J12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <f>B12*I11</f>
-        <v>121405.8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="26">
-        <f>I12*I11</f>
+      <c r="C33" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="76"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="77">
+        <f>B33*K8</f>
         <v>2023430</v>
       </c>
-      <c r="J13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>350</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="47">
+      <c r="C34" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="82">
+        <f>B35*D35</f>
+        <v>2000000</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="64"/>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="81">
         <v>1000</v>
       </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>350</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="47">
-        <f>2*I14</f>
+      <c r="C35" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="83">
         <v>2000</v>
       </c>
-      <c r="J15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <f>B14*B15</f>
-        <v>122500</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E35" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="69"/>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="84"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="86"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="70">
+        <v>37.15</v>
+      </c>
+      <c r="C37" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="60"/>
+      <c r="F37" s="61"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="62">
+        <f>B37/(1/0.0254)</f>
+        <v>0.94360999999999995</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="64"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="65">
+        <f>B38/365</f>
+        <v>2.5852328767123284E-3</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="58"/>
+      <c r="F39" s="64"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="65">
+        <f>B39*1.2</f>
+        <v>3.1022794520547941E-3</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="58"/>
+      <c r="F40" s="64"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="65">
+        <f>B40-B39</f>
+        <v>5.1704657534246568E-4</v>
+      </c>
+      <c r="C41" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="26">
-        <v>2000000</v>
-      </c>
-      <c r="J16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>41.2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18">
-        <v>74.3</v>
-      </c>
-      <c r="J18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <f>B18/(1/0.0254)</f>
-        <v>1.0464800000000001</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19">
-        <f>I18/(1/0.0254)</f>
-        <v>1.8872199999999999</v>
-      </c>
-      <c r="J19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="27">
-        <f>B19/365</f>
-        <v>2.8670684931506852E-3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="27">
-        <f>I19/365</f>
-        <v>5.1704657534246568E-3</v>
-      </c>
-      <c r="J20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="27">
-        <f>B20*1.2</f>
-        <v>3.440482191780822E-3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="D41" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="58"/>
+      <c r="F41" s="64"/>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="81">
+        <f>B40*D34</f>
+        <v>6204.5589041095882</v>
+      </c>
+      <c r="C42" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="27">
-        <f>I20*1.2</f>
-        <v>6.2045589041095882E-3</v>
-      </c>
-      <c r="J22" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="27">
-        <f>B22-B20</f>
-        <v>5.7341369863013686E-4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="27">
-        <f>I22-I20</f>
-        <v>1.0340931506849314E-3</v>
-      </c>
-      <c r="J23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="47">
-        <f>B22*B16</f>
-        <v>421.45906849315071</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="48">
-        <f>I22*I16</f>
-        <v>12409.117808219176</v>
-      </c>
-      <c r="J24" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I25" s="48">
-        <f>I24/2</f>
-        <v>6204.5589041095882</v>
-      </c>
-      <c r="J25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="51" t="s">
-        <v>42</v>
-      </c>
+      <c r="D42" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="68"/>
+      <c r="F42" s="69"/>
     </row>
   </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6141,7 +6636,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C3"/>
+      <selection pane="bottomLeft" activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6782,11 +7277,11 @@
       <c r="AZ8" s="5"/>
       <c r="BA8" s="38"/>
       <c r="BC8" s="37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BD8" s="37"/>
       <c r="BE8" s="37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BF8" s="38"/>
     </row>
@@ -6917,7 +7412,7 @@
       <c r="AZ10" s="5"/>
       <c r="BA10" s="38"/>
       <c r="BB10" s="37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC10" s="38">
         <v>1.5</v>
@@ -7054,7 +7549,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="5"/>
       <c r="BB12" s="37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BC12" s="38">
         <v>13</v>
